--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10716902\eclipse-workspace\AutomationPOC2\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-workspace-main\git\AutomationPOC3\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D8E281-BDB1-4CF6-8F2C-2A56AD6B57AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B945493-6003-4175-AE3A-6EAB5D88DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4F85DF42-A78A-4CCA-8C6C-EE8CA2FC898F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F85DF42-A78A-4CCA-8C6C-EE8CA2FC898F}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>https://www.advantageonlineshopping.com/#/</t>
   </si>
   <si>
-    <t>TestUser</t>
-  </si>
-  <si>
     <t>SearchItem</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Shop from the category list</t>
+  </si>
+  <si>
+    <t>TestUser1</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,12 +501,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -523,206 +523,206 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testdata.xlsx
+++ b/src/test/resources/testData/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-workspace-main\git\AutomationPOC3\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhim\eclipse-myLocalProject\AutomationAssessment\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B945493-6003-4175-AE3A-6EAB5D88DC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB8F92-7911-4586-A745-21D81804A28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4F85DF42-A78A-4CCA-8C6C-EE8CA2FC898F}"/>
   </bookViews>
@@ -34,91 +34,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Scenarioname</t>
   </si>
   <si>
-    <t>Test_001#</t>
-  </si>
-  <si>
-    <t>https://www.advantageonlineshopping.com/#/</t>
-  </si>
-  <si>
-    <t>SearchItem</t>
-  </si>
-  <si>
-    <t>Validate ContactUs functionality</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>EmailID</t>
   </si>
   <si>
-    <t>Laptops</t>
-  </si>
-  <si>
-    <t>HP Chromebook 14 G1(ENERGY STAR)</t>
-  </si>
-  <si>
-    <t>HP H2310 IN-EAR HEADSET</t>
-  </si>
-  <si>
     <t>test@gmail.com</t>
   </si>
   <si>
-    <t>Adding multiple products to cart and verifying clear cart functionality</t>
-  </si>
-  <si>
-    <t>Search product and place an order as loggedin user</t>
-  </si>
-  <si>
-    <t>Reg_UN</t>
-  </si>
-  <si>
-    <t>Reg_Email</t>
-  </si>
-  <si>
-    <t>Reg_Pass</t>
-  </si>
-  <si>
-    <t>PasswordConfirm</t>
-  </si>
-  <si>
-    <t>Register in the application and sign out</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>Shop from the category list</t>
-  </si>
-  <si>
-    <t>TestUser1</t>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Add1</t>
+  </si>
+  <si>
+    <t>Add2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>13 street</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>new valley</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Sign in with registered user</t>
+  </si>
+  <si>
+    <t>Add item to cart</t>
+  </si>
+  <si>
+    <t>Register a new user successfully</t>
+  </si>
+  <si>
+    <t>Registration unsuccessful with duplicate user ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +153,13 @@
       <color rgb="FF2A2A2A"/>
       <name val="LocalRobotoRegular"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +190,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,252 +506,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0C43FE-6AE9-4C53-A0EB-CAB19FD6FC96}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1234567</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5">
+        <v>33012</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/" xr:uid="{A1F03CB9-3CBA-49E1-9ACF-D08E711A8C48}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{06E73E27-88D4-4F85-9E4B-F6B3DEFF310F}"/>
-    <hyperlink ref="B3" r:id="rId3" location="/" xr:uid="{3456BBB6-0BE8-43F6-9B33-6234E6034597}"/>
-    <hyperlink ref="B4" r:id="rId4" location="/" xr:uid="{0B430651-262B-4C92-BBFA-4963D90F48E0}"/>
-    <hyperlink ref="B5" r:id="rId5" location="/" xr:uid="{4E3485CD-A8CE-47FF-AD49-AF815E86D51B}"/>
-    <hyperlink ref="J5" r:id="rId6" xr:uid="{7DBF0032-11F1-4AE7-A080-2313F0EE0300}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{7DF93CAB-E1AA-4AB4-8231-67D062B2EB53}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{A6A16818-A1BF-49DD-8277-861081AD3628}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{B63F6D0E-A0D4-40DD-91B1-DF45BE0E1F14}"/>
-    <hyperlink ref="J4" r:id="rId10" xr:uid="{0738211C-A8AB-407E-B685-F36063485FA5}"/>
-    <hyperlink ref="J3" r:id="rId11" xr:uid="{DF5B2E97-14D0-4A91-A0A1-0B3B0AFAD607}"/>
-    <hyperlink ref="J2" r:id="rId12" xr:uid="{E7C4D063-32B0-41C6-A804-F1ACFDE25D43}"/>
-    <hyperlink ref="B6" r:id="rId13" location="/" xr:uid="{2D38AD98-7A7A-4E8E-B001-2FB4EBA62B7C}"/>
-    <hyperlink ref="J6" r:id="rId14" xr:uid="{7E3139AC-2D96-46D1-990C-7ABF993FD300}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{494F1210-81C6-4FFA-BC67-0544DD287B9B}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7DF93CAB-E1AA-4AB4-8231-67D062B2EB53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>